--- a/Bot_screening/cumulative_changes_forward_9.xlsx
+++ b/Bot_screening/cumulative_changes_forward_9.xlsx
@@ -38,1717 +38,1717 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0057A766"/>
+        <fgColor rgb="005055B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0074B011"/>
+        <fgColor rgb="00A6CC2F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0023266D"/>
+        <fgColor rgb="00F84757"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0057A48B"/>
+        <fgColor rgb="00BCA718"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005C961A"/>
+        <fgColor rgb="00A0334D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B05286"/>
+        <fgColor rgb="004322CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A8CEE9"/>
+        <fgColor rgb="000BD4D2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00617919"/>
+        <fgColor rgb="0017FD78"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003285B9"/>
+        <fgColor rgb="00D20D9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005BA06D"/>
+        <fgColor rgb="00409FA0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E005D0"/>
+        <fgColor rgb="00A28139"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002595E1"/>
+        <fgColor rgb="005BD5A6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0013A3C2"/>
+        <fgColor rgb="0023103E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E20DDF"/>
+        <fgColor rgb="0093D4B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00844519"/>
+        <fgColor rgb="00DD842F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CC60D7"/>
+        <fgColor rgb="00171FD1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F44D03"/>
+        <fgColor rgb="00A8DD5E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004DCEDA"/>
+        <fgColor rgb="00767D46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FB4618"/>
+        <fgColor rgb="000A7C06"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00296F5A"/>
+        <fgColor rgb="004A1AC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0049BD4E"/>
+        <fgColor rgb="00577E21"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004A6159"/>
+        <fgColor rgb="0003D0D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0077CF93"/>
+        <fgColor rgb="00335D31"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006ADCCD"/>
+        <fgColor rgb="0090CE05"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007731FD"/>
+        <fgColor rgb="008D7F75"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D242E2"/>
+        <fgColor rgb="00B7EC1D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDA121"/>
+        <fgColor rgb="00CCE2ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0073D21F"/>
+        <fgColor rgb="00DCBB17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0011AAF9"/>
+        <fgColor rgb="008C7E42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCDA60"/>
+        <fgColor rgb="0016F2FD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6A893"/>
+        <fgColor rgb="00DC45D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCF8DF"/>
+        <fgColor rgb="00515263"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0031FAEF"/>
+        <fgColor rgb="00EF0E8A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002B29DF"/>
+        <fgColor rgb="00C316C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C7530F"/>
+        <fgColor rgb="0004616E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0096C3C1"/>
+        <fgColor rgb="004773D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009BE16E"/>
+        <fgColor rgb="002EB61E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C37545"/>
+        <fgColor rgb="000ACE49"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0014D19A"/>
+        <fgColor rgb="00178F2D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BC133A"/>
+        <fgColor rgb="00AFBE14"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00791772"/>
+        <fgColor rgb="007A59EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DE6852"/>
+        <fgColor rgb="00CB5CEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008ED775"/>
+        <fgColor rgb="00ACFEC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C97267"/>
+        <fgColor rgb="0063D0BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00462678"/>
+        <fgColor rgb="00EB3CC7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006F2DB5"/>
+        <fgColor rgb="00A58C4B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003B6EC5"/>
+        <fgColor rgb="00BC8405"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007185F6"/>
+        <fgColor rgb="00863E75"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006C8416"/>
+        <fgColor rgb="00DA4FAB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A946E9"/>
+        <fgColor rgb="003F97DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3B86E"/>
+        <fgColor rgb="00010BB4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A7BCB9"/>
+        <fgColor rgb="00B37BF5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0052EA33"/>
+        <fgColor rgb="00F652D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4CD60"/>
+        <fgColor rgb="0093979D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FBD59E"/>
+        <fgColor rgb="00AA7BD0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A3A213"/>
+        <fgColor rgb="007B2357"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084E79A"/>
+        <fgColor rgb="00995E32"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0048F53F"/>
+        <fgColor rgb="00147355"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1AC03"/>
+        <fgColor rgb="00B86254"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C60BB6"/>
+        <fgColor rgb="00DC1354"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00633903"/>
+        <fgColor rgb="009EA5BB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AFF8F4"/>
+        <fgColor rgb="0068361C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003E7CA3"/>
+        <fgColor rgb="0092B173"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00733D26"/>
+        <fgColor rgb="00E2FB40"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00605DF0"/>
+        <fgColor rgb="00005B64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006634A1"/>
+        <fgColor rgb="00BFBDB7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00036371"/>
+        <fgColor rgb="00E8CF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007968C2"/>
+        <fgColor rgb="00A3B54A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DD234C"/>
+        <fgColor rgb="00C736E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004CCE4E"/>
+        <fgColor rgb="0030E322"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0018521B"/>
+        <fgColor rgb="0027387F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00381D8A"/>
+        <fgColor rgb="00E6B97E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AC1A26"/>
+        <fgColor rgb="004C2570"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D299F6"/>
+        <fgColor rgb="00050A09"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BA17FE"/>
+        <fgColor rgb="0030F1C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0072C9FB"/>
+        <fgColor rgb="00788562"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003001E2"/>
+        <fgColor rgb="00FAA9D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00677B5A"/>
+        <fgColor rgb="00040BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0090D37F"/>
+        <fgColor rgb="00F63A35"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B19313"/>
+        <fgColor rgb="00763F26"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00301B7B"/>
+        <fgColor rgb="006F7BD1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4C744"/>
+        <fgColor rgb="0090A5DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AE8101"/>
+        <fgColor rgb="0086D5A8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AA142A"/>
+        <fgColor rgb="003342C4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004B02CE"/>
+        <fgColor rgb="0005C06E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007B607E"/>
+        <fgColor rgb="00592362"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0062E17D"/>
+        <fgColor rgb="00A6748F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00685F12"/>
+        <fgColor rgb="002C2F8C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A943CC"/>
+        <fgColor rgb="00F93DD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0061ABC5"/>
+        <fgColor rgb="000DF641"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00570573"/>
+        <fgColor rgb="00B93A06"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BC6BD0"/>
+        <fgColor rgb="00D2AF6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008BA1B0"/>
+        <fgColor rgb="0029DE2B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7AEE7"/>
+        <fgColor rgb="001EBB3E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A7BCE7"/>
+        <fgColor rgb="006D05E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0012C47A"/>
+        <fgColor rgb="003DEFCF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00806E85"/>
+        <fgColor rgb="0042FC6F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00677471"/>
+        <fgColor rgb="00FB866F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00921803"/>
+        <fgColor rgb="00696DB3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006F88FB"/>
+        <fgColor rgb="004624E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C9B3E2"/>
+        <fgColor rgb="00B4C947"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002D3CB2"/>
+        <fgColor rgb="009F17DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004976EA"/>
+        <fgColor rgb="00F53FE8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0094C832"/>
+        <fgColor rgb="00EFFC77"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002989EA"/>
+        <fgColor rgb="00EF91D1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E93593"/>
+        <fgColor rgb="00B9957F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006BD03A"/>
+        <fgColor rgb="00DEFA1A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00810C10"/>
+        <fgColor rgb="0086568A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006E36D9"/>
+        <fgColor rgb="0002202C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009A4A21"/>
+        <fgColor rgb="007B5F58"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CF2CE0"/>
+        <fgColor rgb="00E6721A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005BF560"/>
+        <fgColor rgb="00EE399D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007FCD1A"/>
+        <fgColor rgb="0066AA52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0048D80B"/>
+        <fgColor rgb="00608952"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003B0F12"/>
+        <fgColor rgb="00F4AC69"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00244039"/>
+        <fgColor rgb="0052C6E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005AA8E1"/>
+        <fgColor rgb="00D4DB5C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E64F13"/>
+        <fgColor rgb="00CCFFC7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00523239"/>
+        <fgColor rgb="0093B62D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005B9D13"/>
+        <fgColor rgb="00566F84"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0010865D"/>
+        <fgColor rgb="00539B61"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A29560"/>
+        <fgColor rgb="00406578"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0081066A"/>
+        <fgColor rgb="00FDCC05"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002ABBC4"/>
+        <fgColor rgb="0026F538"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004E1280"/>
+        <fgColor rgb="002D1BF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3209D"/>
+        <fgColor rgb="0076AD2F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FA911B"/>
+        <fgColor rgb="0040B73F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008FC38A"/>
+        <fgColor rgb="0059176E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0028FA31"/>
+        <fgColor rgb="001C0382"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00110235"/>
+        <fgColor rgb="0027C806"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006EBEB6"/>
+        <fgColor rgb="00D1B513"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0020ABFD"/>
+        <fgColor rgb="00C40709"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0094A0B3"/>
+        <fgColor rgb="00D5E6EC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D83EA3"/>
+        <fgColor rgb="0043F444"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0062AA57"/>
+        <fgColor rgb="001B28E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CD2D44"/>
+        <fgColor rgb="008808B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7B84D"/>
+        <fgColor rgb="00445D44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003F4EFC"/>
+        <fgColor rgb="005491ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00821AF7"/>
+        <fgColor rgb="00885B05"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00231252"/>
+        <fgColor rgb="002F982E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00147CF4"/>
+        <fgColor rgb="0011B178"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EF9F52"/>
+        <fgColor rgb="0034ED0E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00763A47"/>
+        <fgColor rgb="0050CEB0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00973A69"/>
+        <fgColor rgb="00B969F9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F83260"/>
+        <fgColor rgb="00A6DD3A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4BD45"/>
+        <fgColor rgb="00FC1481"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00409317"/>
+        <fgColor rgb="00F1F404"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0076C3AE"/>
+        <fgColor rgb="0077F505"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0368A"/>
+        <fgColor rgb="00E346AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AB15D2"/>
+        <fgColor rgb="0024933B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00982833"/>
+        <fgColor rgb="0088D5B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0066C38D"/>
+        <fgColor rgb="00DF917A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8B33D"/>
+        <fgColor rgb="00241783"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0086D398"/>
+        <fgColor rgb="008C38E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCF256"/>
+        <fgColor rgb="00258C3F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00319724"/>
+        <fgColor rgb="00A65410"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0005AC4E"/>
+        <fgColor rgb="0098DFD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0053B578"/>
+        <fgColor rgb="00B0CC47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0030EDD5"/>
+        <fgColor rgb="0009F5FB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9D2A4"/>
+        <fgColor rgb="00AED09F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0081C0B9"/>
+        <fgColor rgb="00AD8BAA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D414BA"/>
+        <fgColor rgb="0047B3FD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F6C0B1"/>
+        <fgColor rgb="00BA7E46"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002AE5A3"/>
+        <fgColor rgb="007CD102"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DF617A"/>
+        <fgColor rgb="00C3F0F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F6B856"/>
+        <fgColor rgb="000C343B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0072A633"/>
+        <fgColor rgb="0060C0A2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AE3C85"/>
+        <fgColor rgb="00C0EFC2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A3F2BB"/>
+        <fgColor rgb="00853B94"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0015D6BD"/>
+        <fgColor rgb="00089038"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00091D80"/>
+        <fgColor rgb="003BEC0B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D741E5"/>
+        <fgColor rgb="00404FBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006E39C6"/>
+        <fgColor rgb="00EBD8CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00036039"/>
+        <fgColor rgb="00EE3847"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009A8713"/>
+        <fgColor rgb="003BE971"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0065FD24"/>
+        <fgColor rgb="0089049A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00400303"/>
+        <fgColor rgb="00F1058B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D04B77"/>
+        <fgColor rgb="002E414C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0003F2DC"/>
+        <fgColor rgb="0008D074"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D45D35"/>
+        <fgColor rgb="00BAAFEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0096BF10"/>
+        <fgColor rgb="0020DAF2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004EE0C6"/>
+        <fgColor rgb="0043F206"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4CA08"/>
+        <fgColor rgb="00CEB189"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0027D554"/>
+        <fgColor rgb="00A2852E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007343F4"/>
+        <fgColor rgb="00024BFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000419A0"/>
+        <fgColor rgb="00797540"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0009F897"/>
+        <fgColor rgb="001B30E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007DEC8F"/>
+        <fgColor rgb="009413CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0038021E"/>
+        <fgColor rgb="005BEAE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000E2FD3"/>
+        <fgColor rgb="00F9BF8B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00485CA9"/>
+        <fgColor rgb="005FE920"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B527A5"/>
+        <fgColor rgb="0049BB5B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005F2FA2"/>
+        <fgColor rgb="000ABF6A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0002DC67"/>
+        <fgColor rgb="000FED43"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DE7AEC"/>
+        <fgColor rgb="005086A0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0025AACC"/>
+        <fgColor rgb="00E03D05"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00725EA6"/>
+        <fgColor rgb="00E65B30"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00090A02"/>
+        <fgColor rgb="00FE1743"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9D237"/>
+        <fgColor rgb="00BF92BF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0067A25F"/>
+        <fgColor rgb="00518CCA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001AB218"/>
+        <fgColor rgb="00C31773"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A6FF38"/>
+        <fgColor rgb="00D1B7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001CF1D3"/>
+        <fgColor rgb="00690A44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EBBFAD"/>
+        <fgColor rgb="00E53B57"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C380D0"/>
+        <fgColor rgb="002812A1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0003B7D0"/>
+        <fgColor rgb="00A7D16D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0B09A"/>
+        <fgColor rgb="0049BAF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007DDA71"/>
+        <fgColor rgb="00FA99FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007DB20D"/>
+        <fgColor rgb="00CC4522"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B2B99C"/>
+        <fgColor rgb="00973612"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001AFCA0"/>
+        <fgColor rgb="00DF3359"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0079CE4D"/>
+        <fgColor rgb="00D09DA4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A577BB"/>
+        <fgColor rgb="00602AA9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007B6F0F"/>
+        <fgColor rgb="0074B7FA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000F39E1"/>
+        <fgColor rgb="0029A48E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B156A0"/>
+        <fgColor rgb="0090D6A9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0004AAFD"/>
+        <fgColor rgb="00A5C4E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6B4DF"/>
+        <fgColor rgb="0035CED2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001D0633"/>
+        <fgColor rgb="006E8646"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A38C10"/>
+        <fgColor rgb="00047C4B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004562EC"/>
+        <fgColor rgb="001F2017"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D61055"/>
+        <fgColor rgb="00CD208C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0031BDE6"/>
+        <fgColor rgb="0037AD59"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009AA5D9"/>
+        <fgColor rgb="008955D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DA9677"/>
+        <fgColor rgb="00CFCC80"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00213296"/>
+        <fgColor rgb="00781742"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006918F1"/>
+        <fgColor rgb="00B55D56"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006FF1AC"/>
+        <fgColor rgb="0045F65A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006696F9"/>
+        <fgColor rgb="00AC4FF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FDB8AB"/>
+        <fgColor rgb="00FD6CC7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F16499"/>
+        <fgColor rgb="0011456E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004459FE"/>
+        <fgColor rgb="00198275"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005CBA55"/>
+        <fgColor rgb="006360EA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B36FB0"/>
+        <fgColor rgb="00509C7C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00990A6E"/>
+        <fgColor rgb="00C07738"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00604703"/>
+        <fgColor rgb="0078BD8D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0039FB40"/>
+        <fgColor rgb="00251466"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00685636"/>
+        <fgColor rgb="0044A317"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0075EDA4"/>
+        <fgColor rgb="0052EED9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0023603E"/>
+        <fgColor rgb="0026695B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00047243"/>
+        <fgColor rgb="008CFC4F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C99F52"/>
+        <fgColor rgb="00DDD9F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00037A06"/>
+        <fgColor rgb="008A48DF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007FEC9C"/>
+        <fgColor rgb="001E579C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005FE1A0"/>
+        <fgColor rgb="0083AA8C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B1FA90"/>
+        <fgColor rgb="00DCAA43"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006CBD86"/>
+        <fgColor rgb="00CE4DD4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00990D9A"/>
+        <fgColor rgb="003D3CEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0DC51"/>
+        <fgColor rgb="00C018CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DB5A34"/>
+        <fgColor rgb="00AA9FE2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001A0F8F"/>
+        <fgColor rgb="005B4037"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A8E691"/>
+        <fgColor rgb="005492D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005CEAE8"/>
+        <fgColor rgb="00DA0720"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6A517"/>
+        <fgColor rgb="0082D255"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00717A60"/>
+        <fgColor rgb="00029D8B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0054454F"/>
+        <fgColor rgb="00E3BCAC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0085F0EB"/>
+        <fgColor rgb="00B3B6EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F6D9A3"/>
+        <fgColor rgb="00E5BB96"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003DD20B"/>
+        <fgColor rgb="00D11F75"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0038B68B"/>
+        <fgColor rgb="00251E2F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005FF7B6"/>
+        <fgColor rgb="005B1738"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00677D40"/>
+        <fgColor rgb="0023F2A9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3529F"/>
+        <fgColor rgb="00998074"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0023EA70"/>
+        <fgColor rgb="004BEA01"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009DF5FE"/>
+        <fgColor rgb="00BCD4C2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0040216F"/>
+        <fgColor rgb="00365A42"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000DEC65"/>
+        <fgColor rgb="00109DC6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007ED1BE"/>
+        <fgColor rgb="0076CCBC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0088DD05"/>
+        <fgColor rgb="002E8999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001BAD4A"/>
+        <fgColor rgb="008AF30F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0048A88D"/>
+        <fgColor rgb="0022EAE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004855C7"/>
+        <fgColor rgb="007091DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0081C65F"/>
+        <fgColor rgb="002DBBD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00676C18"/>
+        <fgColor rgb="00BD0AE2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDC9"/>
+        <fgColor rgb="009D4433"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00051D72"/>
+        <fgColor rgb="00BF1729"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0027B02E"/>
+        <fgColor rgb="001D0D51"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DC4F4F"/>
+        <fgColor rgb="00491869"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000F1323"/>
+        <fgColor rgb="00D06B37"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0086FA7E"/>
+        <fgColor rgb="006BED87"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00936FFF"/>
+        <fgColor rgb="000FA4AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006D707A"/>
+        <fgColor rgb="00FF591E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C25C9E"/>
+        <fgColor rgb="0041D8FD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0DE41"/>
+        <fgColor rgb="00A1EC92"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C35E26"/>
+        <fgColor rgb="00F0F911"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0059B404"/>
+        <fgColor rgb="008708B1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008C178B"/>
+        <fgColor rgb="008EFA67"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003A4213"/>
+        <fgColor rgb="00F8D6D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6F9D5"/>
+        <fgColor rgb="00D53921"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ED7067"/>
+        <fgColor rgb="00BA0971"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFE305"/>
+        <fgColor rgb="00CBDEB2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0055CACE"/>
+        <fgColor rgb="00411600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001CEBD4"/>
+        <fgColor rgb="0034ECA1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003D5D96"/>
+        <fgColor rgb="00495086"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F9EC6D"/>
+        <fgColor rgb="00FC6E64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0056CAA1"/>
+        <fgColor rgb="002A6A83"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DC96C8"/>
+        <fgColor rgb="002A49E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A92B55"/>
+        <fgColor rgb="005B4171"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E575D7"/>
+        <fgColor rgb="00C0FE3F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001201DC"/>
+        <fgColor rgb="003137AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0024BF70"/>
+        <fgColor rgb="00DC249A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBE419"/>
+        <fgColor rgb="0006109B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00609555"/>
+        <fgColor rgb="00F77306"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004559B4"/>
+        <fgColor rgb="00270AE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3777C"/>
+        <fgColor rgb="0071F418"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0062ED6C"/>
+        <fgColor rgb="006DED38"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00034762"/>
+        <fgColor rgb="0011FDB1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D90CB1"/>
+        <fgColor rgb="0092EF1E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00332404"/>
+        <fgColor rgb="00AA180A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00431803"/>
+        <fgColor rgb="0055B1A7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005570F9"/>
+        <fgColor rgb="003CA3F5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0011DE8B"/>
+        <fgColor rgb="002EC607"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBFE9B"/>
+        <fgColor rgb="00FF4495"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001EB43B"/>
+        <fgColor rgb="00EA77E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FA0C67"/>
+        <fgColor rgb="009FDF4B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00507741"/>
+        <fgColor rgb="00B9D188"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EADEF6"/>
+        <fgColor rgb="00DAE4FE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FC8683"/>
+        <fgColor rgb="00B710B3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008C240C"/>
+        <fgColor rgb="00737635"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3C806"/>
+        <fgColor rgb="0045E1D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4903F"/>
+        <fgColor rgb="00F06913"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00765ECD"/>
+        <fgColor rgb="008C2D71"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D50D6D"/>
+        <fgColor rgb="00A023A4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002DC2D7"/>
+        <fgColor rgb="002B668B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007AF391"/>
+        <fgColor rgb="00952E3A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A31758"/>
+        <fgColor rgb="00894E44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00226B94"/>
+        <fgColor rgb="00F60FFB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B74C93"/>
+        <fgColor rgb="008DFD7E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0049FFE9"/>
+        <fgColor rgb="00482032"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E554C2"/>
+        <fgColor rgb="0003FF2D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4F99A"/>
+        <fgColor rgb="008D9C72"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047C218"/>
+        <fgColor rgb="00926C34"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00950E7E"/>
+        <fgColor rgb="00631EF6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005FC09D"/>
+        <fgColor rgb="00A32B36"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0002F6B5"/>
+        <fgColor rgb="00A508DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000B69FF"/>
+        <fgColor rgb="00365CD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007DDD6E"/>
+        <fgColor rgb="00E86080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DF3AEA"/>
+        <fgColor rgb="007DCC35"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FE17FE"/>
+        <fgColor rgb="0038AE79"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00119EA0"/>
+        <fgColor rgb="00A43084"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005E72FC"/>
+        <fgColor rgb="003AF2CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0070C3C5"/>
+        <fgColor rgb="001F6E44"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0049CFA0"/>
+        <fgColor rgb="0072E794"/>
       </patternFill>
     </fill>
   </fills>
